--- a/일정계획.xlsx
+++ b/일정계획.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\homep\Desktop\코딩\팀프로젝트2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjjwb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC96128-576D-4C70-884B-C090D0D6E7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A74E29C-4368-4F19-859B-C6A0A4F9CCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{56657588-52FA-4022-9AE5-9D6BB59B9A37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{56657588-52FA-4022-9AE5-9D6BB59B9A37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="조원빈" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="136">
   <si>
     <t>리디북스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,6 +330,196 @@
   </si>
   <si>
     <t>1/24-1/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리디북스</t>
+  </si>
+  <si>
+    <t>대분류</t>
+  </si>
+  <si>
+    <t>중분류</t>
+  </si>
+  <si>
+    <t>소분류</t>
+  </si>
+  <si>
+    <t>회원</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>회원가입</t>
+  </si>
+  <si>
+    <t>회원메뉴</t>
+  </si>
+  <si>
+    <t>알림</t>
+  </si>
+  <si>
+    <t>카트</t>
+  </si>
+  <si>
+    <t>마이리디</t>
+  </si>
+  <si>
+    <t>내서재</t>
+  </si>
+  <si>
+    <t>캐시충전</t>
+  </si>
+  <si>
+    <t>책분류메뉴1</t>
+  </si>
+  <si>
+    <t>전체메뉴</t>
+  </si>
+  <si>
+    <t>로맨스</t>
+  </si>
+  <si>
+    <t>판타지</t>
+  </si>
+  <si>
+    <t>만화</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>슬라이드1</t>
+  </si>
+  <si>
+    <t>슬라이드2</t>
+  </si>
+  <si>
+    <t>책분류메뉴2</t>
+  </si>
+  <si>
+    <t>신간</t>
+  </si>
+  <si>
+    <t>이벤트</t>
+  </si>
+  <si>
+    <t>베스트셀러</t>
+  </si>
+  <si>
+    <t>대여전</t>
+  </si>
+  <si>
+    <t>지금인기세트</t>
+  </si>
+  <si>
+    <t>신간캘린더</t>
+  </si>
+  <si>
+    <t>일반혜택지도</t>
+  </si>
+  <si>
+    <t>위클리쿠폰</t>
+  </si>
+  <si>
+    <t>리디페이퍼</t>
+  </si>
+  <si>
+    <t>책소개1</t>
+  </si>
+  <si>
+    <t>슬라이드3</t>
+  </si>
+  <si>
+    <t>책소개2</t>
+  </si>
+  <si>
+    <t>슬라이드4</t>
+  </si>
+  <si>
+    <t>슬라이드5</t>
+  </si>
+  <si>
+    <t>푸터1</t>
+  </si>
+  <si>
+    <t>고객센터</t>
+  </si>
+  <si>
+    <t>공지사항</t>
+  </si>
+  <si>
+    <t>RIDIPAPER</t>
+  </si>
+  <si>
+    <t>콘텐츠제공문의</t>
+  </si>
+  <si>
+    <t>페이스북</t>
+  </si>
+  <si>
+    <t>회사소개</t>
+  </si>
+  <si>
+    <t>제휴카드</t>
+  </si>
+  <si>
+    <t>CP사이트</t>
+  </si>
+  <si>
+    <t>인스타그램</t>
+  </si>
+  <si>
+    <t>인재채용</t>
+  </si>
+  <si>
+    <t>뷰어다운로드</t>
+  </si>
+  <si>
+    <t>사업제휴문의</t>
+  </si>
+  <si>
+    <t>리디캐시충전</t>
+  </si>
+  <si>
+    <t>리디셀렉트B2B</t>
+  </si>
+  <si>
+    <t>푸터2</t>
+  </si>
+  <si>
+    <t>사업자정보</t>
+  </si>
+  <si>
+    <t>푸터3</t>
+  </si>
+  <si>
+    <t>이용약관</t>
+  </si>
+  <si>
+    <t>개인정보처리방침</t>
+  </si>
+  <si>
+    <t>청소년보호정책</t>
+  </si>
+  <si>
+    <t>사업자정보확인</t>
+  </si>
+  <si>
+    <t>메인 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/4~1/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/30~1/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/7~1/8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -336,8 +527,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="179" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -365,7 +557,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,8 +570,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -502,13 +724,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -536,6 +795,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -554,20 +828,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2C6239-42D4-4688-889F-B51D5FAE9496}">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -905,23 +1209,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -933,22 +1237,22 @@
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="11" t="s">
         <v>64</v>
       </c>
       <c r="J2" s="8" t="s">
@@ -966,24 +1270,24 @@
       <c r="N2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1006,8 +1310,8 @@
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="5" t="s">
         <v>45</v>
       </c>
@@ -1028,8 +1332,8 @@
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1052,8 +1356,8 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="5" t="s">
         <v>47</v>
       </c>
@@ -1074,8 +1378,8 @@
       <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="5" t="s">
         <v>48</v>
       </c>
@@ -1096,8 +1400,8 @@
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="5" t="s">
         <v>49</v>
       </c>
@@ -1118,8 +1422,8 @@
       <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="5" t="s">
         <v>50</v>
       </c>
@@ -1140,8 +1444,8 @@
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1164,8 +1468,8 @@
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="5" t="s">
         <v>52</v>
       </c>
@@ -1186,8 +1490,8 @@
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="5" t="s">
         <v>53</v>
       </c>
@@ -1208,8 +1512,8 @@
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="5" t="s">
         <v>54</v>
       </c>
@@ -1230,8 +1534,8 @@
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="5" t="s">
         <v>55</v>
       </c>
@@ -1252,7 +1556,7 @@
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="7" t="s">
         <v>8</v>
       </c>
@@ -1276,7 +1580,7 @@
       <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="7" t="s">
         <v>9</v>
       </c>
@@ -1300,8 +1604,8 @@
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1324,8 +1628,8 @@
       <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="5" t="s">
         <v>12</v>
       </c>
@@ -1346,8 +1650,8 @@
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1368,8 +1672,8 @@
       <c r="R19" s="2"/>
     </row>
     <row r="20" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="5" t="s">
         <v>14</v>
       </c>
@@ -1390,8 +1694,8 @@
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="5" t="s">
         <v>15</v>
       </c>
@@ -1412,8 +1716,8 @@
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="5" t="s">
         <v>16</v>
       </c>
@@ -1434,8 +1738,8 @@
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="5" t="s">
         <v>17</v>
       </c>
@@ -1456,8 +1760,8 @@
       <c r="R23" s="2"/>
     </row>
     <row r="24" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="5" t="s">
         <v>18</v>
       </c>
@@ -1478,8 +1782,8 @@
       <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="5" t="s">
         <v>19</v>
       </c>
@@ -1500,7 +1804,7 @@
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="13"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="7" t="s">
         <v>20</v>
       </c>
@@ -1524,7 +1828,7 @@
       <c r="R26" s="2"/>
     </row>
     <row r="27" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="13"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="7" t="s">
         <v>21</v>
       </c>
@@ -1537,7 +1841,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="19"/>
+      <c r="J27" s="13"/>
       <c r="K27" s="4"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1548,7 +1852,7 @@
       <c r="R27" s="2"/>
     </row>
     <row r="28" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="13"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="7" t="s">
         <v>22</v>
       </c>
@@ -1572,7 +1876,7 @@
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="13"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="7" t="s">
         <v>23</v>
       </c>
@@ -1585,7 +1889,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="19"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="4"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -1596,7 +1900,7 @@
       <c r="R29" s="2"/>
     </row>
     <row r="30" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="13"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="7" t="s">
         <v>24</v>
       </c>
@@ -1609,7 +1913,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="19"/>
+      <c r="J30" s="13"/>
       <c r="K30" s="4"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -1620,8 +1924,8 @@
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="13"/>
-      <c r="B31" s="12" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="17" t="s">
         <v>56</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1644,8 +1948,8 @@
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="5" t="s">
         <v>26</v>
       </c>
@@ -1666,8 +1970,8 @@
       <c r="R32" s="2"/>
     </row>
     <row r="33" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="5" t="s">
         <v>27</v>
       </c>
@@ -1688,8 +1992,8 @@
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="5" t="s">
         <v>28</v>
       </c>
@@ -1710,8 +2014,8 @@
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="5" t="s">
         <v>29</v>
       </c>
@@ -1732,8 +2036,8 @@
       <c r="R35" s="2"/>
     </row>
     <row r="36" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="5" t="s">
         <v>30</v>
       </c>
@@ -1754,8 +2058,8 @@
       <c r="R36" s="2"/>
     </row>
     <row r="37" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="5" t="s">
         <v>31</v>
       </c>
@@ -1776,8 +2080,8 @@
       <c r="R37" s="2"/>
     </row>
     <row r="38" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="5" t="s">
         <v>32</v>
       </c>
@@ -1798,8 +2102,8 @@
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="5" t="s">
         <v>33</v>
       </c>
@@ -1820,8 +2124,8 @@
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="5" t="s">
         <v>34</v>
       </c>
@@ -1842,8 +2146,8 @@
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="5" t="s">
         <v>35</v>
       </c>
@@ -1864,8 +2168,8 @@
       <c r="R41" s="2"/>
     </row>
     <row r="42" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="5" t="s">
         <v>36</v>
       </c>
@@ -1886,8 +2190,8 @@
       <c r="R42" s="2"/>
     </row>
     <row r="43" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="5" t="s">
         <v>37</v>
       </c>
@@ -1908,8 +2212,8 @@
       <c r="R43" s="2"/>
     </row>
     <row r="44" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="5" t="s">
         <v>38</v>
       </c>
@@ -1930,7 +2234,7 @@
       <c r="R44" s="2"/>
     </row>
     <row r="45" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="13"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="7" t="s">
         <v>57</v>
       </c>
@@ -1954,8 +2258,8 @@
       <c r="R45" s="2"/>
     </row>
     <row r="46" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="13"/>
-      <c r="B46" s="12" t="s">
+      <c r="A46" s="18"/>
+      <c r="B46" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -1978,8 +2282,8 @@
       <c r="R46" s="2"/>
     </row>
     <row r="47" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="5" t="s">
         <v>41</v>
       </c>
@@ -2000,8 +2304,8 @@
       <c r="R47" s="2"/>
     </row>
     <row r="48" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="5" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2326,8 @@
       <c r="R48" s="2"/>
     </row>
     <row r="49" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="5" t="s">
         <v>43</v>
       </c>
@@ -2061,4 +2365,1161 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048E8737-A7CC-45D6-8889-C431B189507D}">
+  <dimension ref="A1:R49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.25" style="20" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="20" customWidth="1"/>
+    <col min="4" max="18" width="11.125" style="20" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="30">
+        <v>44203</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="30">
+        <v>44205</v>
+      </c>
+      <c r="I2" s="30">
+        <v>44206</v>
+      </c>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="26"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="26"/>
+      <c r="B15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="26"/>
+      <c r="B16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
+      <c r="B17" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="26"/>
+      <c r="B26" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="26"/>
+      <c r="B27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="26"/>
+      <c r="B28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="26"/>
+      <c r="B29" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="26"/>
+      <c r="B30" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="26"/>
+      <c r="B31" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="26"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="26"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="26"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="26"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="26"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="26"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="26"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="26"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="26"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="26"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="26"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" s="26"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" s="26"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" s="26"/>
+      <c r="B45" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" s="26"/>
+      <c r="B46" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47" s="26"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" s="26"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="27"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A3:A49"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="B31:B44"/>
+    <mergeCell ref="B46:B49"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/일정계획.xlsx
+++ b/일정계획.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjjwb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\homep\Desktop\코딩\팀프로젝트2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A74E29C-4368-4F19-859B-C6A0A4F9CCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709179C3-CE32-450E-9B69-39D37B984E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{56657588-52FA-4022-9AE5-9D6BB59B9A37}"/>
+    <workbookView xWindow="19875" yWindow="3915" windowWidth="15495" windowHeight="11505" xr2:uid="{56657588-52FA-4022-9AE5-9D6BB59B9A37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-    <numFmt numFmtId="179" formatCode="m&quot;/&quot;d;@"/>
+    <numFmt numFmtId="177" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -767,7 +767,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -810,6 +810,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -828,49 +855,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1189,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2C6239-42D4-4688-889F-B51D5FAE9496}">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1209,23 +1212,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="16"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
     </row>
     <row r="2" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -1284,10 +1287,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1310,8 +1313,8 @@
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="5" t="s">
         <v>45</v>
       </c>
@@ -1332,135 +1335,135 @@
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -1468,21 +1471,21 @@
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -1490,21 +1493,21 @@
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -1512,51 +1515,51 @@
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="7" t="s">
         <v>8</v>
       </c>
@@ -1564,23 +1567,23 @@
         <v>8</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="7" t="s">
         <v>9</v>
       </c>
@@ -1588,223 +1591,223 @@
         <v>9</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="18"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="15"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="2"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="15"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="15"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
     <row r="20" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="2"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="15"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="2"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="15"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="2"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="15"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="2"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="15"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
     <row r="24" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="2"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="15"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="2"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="15"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="18"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="7" t="s">
         <v>20</v>
       </c>
@@ -1812,23 +1815,23 @@
         <v>20</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="4"/>
+      <c r="K26" s="15"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="3"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
     <row r="27" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="7" t="s">
         <v>21</v>
       </c>
@@ -1836,23 +1839,23 @@
         <v>21</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="15"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
     </row>
     <row r="28" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="18"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="7" t="s">
         <v>22</v>
       </c>
@@ -1860,23 +1863,23 @@
         <v>22</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="4"/>
+      <c r="K28" s="15"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="3"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="18"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="7" t="s">
         <v>23</v>
       </c>
@@ -1884,23 +1887,23 @@
         <v>23</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="15"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
     <row r="30" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="18"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="7" t="s">
         <v>24</v>
       </c>
@@ -1908,333 +1911,333 @@
         <v>24</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="15"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="18"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="27"/>
+      <c r="B31" s="26" t="s">
         <v>56</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="4"/>
+      <c r="K31" s="15"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="4"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="15"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="4"/>
+      <c r="K32" s="15"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="4"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="15"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
     <row r="33" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="4"/>
+      <c r="K33" s="15"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="4"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="15"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
     </row>
     <row r="34" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="4"/>
+      <c r="K34" s="15"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="4"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="4"/>
+      <c r="K35" s="15"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="4"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
     </row>
     <row r="36" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="4"/>
+      <c r="K36" s="15"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="4"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
     </row>
     <row r="37" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="4"/>
+      <c r="K37" s="15"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="4"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
     </row>
     <row r="38" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="4"/>
+      <c r="K38" s="15"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="4"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="4"/>
+      <c r="K39" s="15"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="4"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
       <c r="C40" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="4"/>
+      <c r="K40" s="15"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="4"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="4"/>
+      <c r="K41" s="15"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="4"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
     </row>
     <row r="42" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
       <c r="C42" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="4"/>
+      <c r="K42" s="15"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="4"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
     <row r="43" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
       <c r="C43" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="4"/>
+      <c r="K43" s="15"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="4"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
     </row>
     <row r="44" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="4"/>
+      <c r="K44" s="15"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="4"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
     </row>
     <row r="45" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="18"/>
+      <c r="A45" s="27"/>
       <c r="B45" s="7" t="s">
         <v>57</v>
       </c>
@@ -2242,108 +2245,108 @@
         <v>39</v>
       </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="4"/>
+      <c r="K45" s="15"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="3"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
     </row>
     <row r="46" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="18"/>
-      <c r="B46" s="17" t="s">
+      <c r="A46" s="27"/>
+      <c r="B46" s="26" t="s">
         <v>58</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="4"/>
+      <c r="K46" s="15"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="3"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
     </row>
     <row r="47" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
       <c r="C47" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
       <c r="J47" s="2"/>
-      <c r="K47" s="4"/>
+      <c r="K47" s="15"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="3"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
     </row>
     <row r="48" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
       <c r="C48" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
       <c r="J48" s="2"/>
-      <c r="K48" s="4"/>
+      <c r="K48" s="15"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="3"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
     </row>
     <row r="49" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
       <c r="C49" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="4"/>
+      <c r="K49" s="15"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="3"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
     </row>
@@ -2371,40 +2374,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048E8737-A7CC-45D6-8889-C431B189507D}">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="20" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="20" customWidth="1"/>
-    <col min="4" max="18" width="11.125" style="20" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="11.25" style="14" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="14" customWidth="1"/>
+    <col min="4" max="18" width="11.125" style="14" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -2422,33 +2425,33 @@
       <c r="E2" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="18">
         <v>44203</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="18">
         <v>44205</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="18">
         <v>44206</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2460,19 +2463,19 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="24"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="4" t="s">
         <v>80</v>
       </c>
@@ -2482,131 +2485,131 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="30" t="s">
         <v>81</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="28"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="28"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="28"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="28"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="28"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="30" t="s">
         <v>87</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2617,20 +2620,20 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="4" t="s">
         <v>89</v>
       </c>
@@ -2639,20 +2642,20 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="4" t="s">
         <v>90</v>
       </c>
@@ -2661,20 +2664,20 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="4" t="s">
         <v>91</v>
       </c>
@@ -2683,20 +2686,20 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="4" t="s">
         <v>92</v>
       </c>
@@ -2705,19 +2708,19 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="4" t="s">
         <v>93</v>
       </c>
@@ -2726,22 +2729,22 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="29"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="4" t="s">
         <v>94</v>
       </c>
@@ -2750,23 +2753,23 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="29"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="32"/>
+      <c r="B17" s="31" t="s">
         <v>95</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -2775,197 +2778,197 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="31"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="31"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="31"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="31"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="4" t="s">
         <v>100</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="31"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="31"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="4" t="s">
         <v>102</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="31"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="4" t="s">
         <v>103</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="31"/>
+      <c r="G24" s="19"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="31"/>
+      <c r="G25" s="19"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="4" t="s">
         <v>105</v>
       </c>
@@ -2977,19 +2980,19 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="4" t="s">
         <v>106</v>
       </c>
@@ -2998,22 +3001,22 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="29"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="4" t="s">
         <v>107</v>
       </c>
@@ -3025,19 +3028,19 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="4" t="s">
         <v>108</v>
       </c>
@@ -3046,22 +3049,22 @@
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="29"/>
+      <c r="F29" s="17"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="4" t="s">
         <v>109</v>
       </c>
@@ -3070,23 +3073,23 @@
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="29"/>
+      <c r="F30" s="17"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="32"/>
+      <c r="B31" s="30" t="s">
         <v>110</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -3096,21 +3099,21 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="32"/>
+      <c r="H31" s="20"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="23"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="4" t="s">
         <v>112</v>
       </c>
@@ -3118,21 +3121,21 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="32"/>
+      <c r="H32" s="20"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="4" t="s">
         <v>113</v>
       </c>
@@ -3140,21 +3143,21 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="32"/>
+      <c r="H33" s="20"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="4" t="s">
         <v>114</v>
       </c>
@@ -3162,21 +3165,21 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="32"/>
+      <c r="H34" s="20"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
-      <c r="B35" s="23"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="4" t="s">
         <v>115</v>
       </c>
@@ -3184,21 +3187,21 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="32"/>
+      <c r="H35" s="20"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="26"/>
-      <c r="B36" s="23"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="4" t="s">
         <v>116</v>
       </c>
@@ -3206,21 +3209,21 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="32"/>
+      <c r="H36" s="20"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="26"/>
-      <c r="B37" s="23"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="35"/>
       <c r="C37" s="4" t="s">
         <v>117</v>
       </c>
@@ -3228,21 +3231,21 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="32"/>
+      <c r="H37" s="20"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="23"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="4" t="s">
         <v>118</v>
       </c>
@@ -3250,21 +3253,21 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="32"/>
+      <c r="H38" s="20"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
-      <c r="B39" s="23"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="4" t="s">
         <v>119</v>
       </c>
@@ -3272,21 +3275,21 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="32"/>
+      <c r="H39" s="20"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
-      <c r="B40" s="23"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="35"/>
       <c r="C40" s="4" t="s">
         <v>120</v>
       </c>
@@ -3294,21 +3297,21 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="32"/>
+      <c r="H40" s="20"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="26"/>
-      <c r="B41" s="23"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="4" t="s">
         <v>121</v>
       </c>
@@ -3316,21 +3319,21 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="32"/>
+      <c r="H41" s="20"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="34"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="26"/>
-      <c r="B42" s="23"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="4" t="s">
         <v>122</v>
       </c>
@@ -3338,21 +3341,21 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="32"/>
+      <c r="H42" s="20"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" s="26"/>
-      <c r="B43" s="23"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="4" t="s">
         <v>123</v>
       </c>
@@ -3360,21 +3363,21 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="32"/>
+      <c r="H43" s="20"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44" s="26"/>
-      <c r="B44" s="24"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="34"/>
       <c r="C44" s="4" t="s">
         <v>124</v>
       </c>
@@ -3382,20 +3385,20 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="32"/>
+      <c r="H44" s="20"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="34"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="26"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="4" t="s">
         <v>125</v>
       </c>
@@ -3406,21 +3409,21 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="32"/>
+      <c r="H45" s="20"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="34"/>
-      <c r="R45" s="34"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="26"/>
-      <c r="B46" s="22" t="s">
+      <c r="A46" s="32"/>
+      <c r="B46" s="30" t="s">
         <v>127</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -3430,21 +3433,21 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="32"/>
+      <c r="H46" s="20"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="34"/>
-      <c r="Q46" s="34"/>
-      <c r="R46" s="34"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="26"/>
-      <c r="B47" s="23"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="35"/>
       <c r="C47" s="4" t="s">
         <v>129</v>
       </c>
@@ -3452,21 +3455,21 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="32"/>
+      <c r="H47" s="20"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="34"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="26"/>
-      <c r="B48" s="23"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="35"/>
       <c r="C48" s="4" t="s">
         <v>130</v>
       </c>
@@ -3474,21 +3477,21 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="32"/>
+      <c r="H48" s="20"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="34"/>
-      <c r="R48" s="34"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" s="27"/>
-      <c r="B49" s="24"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="34"/>
       <c r="C49" s="4" t="s">
         <v>131</v>
       </c>
@@ -3496,17 +3499,17 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="32"/>
+      <c r="H49" s="20"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="34"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
